--- a/data/trans_bre/P6904-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P6904-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P6904-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P6904-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>29,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-19,8%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,78%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,85%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-39,64; 11,29</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7,97; 47,63</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-4,04; 50,94</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-54,61; 20,65</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,96; 163,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,92; 129,89</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,25</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-26,85</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,82%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,36; 28,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,77; -4,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,9; 20,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,01; 17,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,11; 66,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,72; -7,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,22; 28,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,31; 41,18</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,67</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,71</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,75%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,1%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,56%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,76%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,22; 13,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,85; 15,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,93; 12,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,85; 21,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,08; 33,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,59; 32,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,84; 16,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,54; 50,09</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,35</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,28%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,37%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,58; 26,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,84; 21,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,98; 20,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,98; 31,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,93; 84,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,48; 45,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,97; 36,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,54; 54,5</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-25,31</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,34</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,73</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,85%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,43%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,91%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,32%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,88; 22,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,53; 12,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,51; 59,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,9; 26,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 127,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,51; 13,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,68; 194,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,56; 87,11</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-30,41</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>51,99</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,5</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,91%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>147,11%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,29%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,2; 34,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,15; -3,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,04; 78,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,82; 15,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,44; 102,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,83; -4,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,82; 447,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,55; 31,19</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,75</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,41</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,53</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,13%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,23%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,73%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,54; 20,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,21; 38,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,92; 9,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,36; 24,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,51; 49,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,72; 131,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,85; 16,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,37; 53,46</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,47</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,18</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,68</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,73%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,83%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,71%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,75; 16,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,9; 37,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,13; 42,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,62; -0,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,46; 29,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,72; 118,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,27; 186,7</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,71; -0,75</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,65</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,94%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,77%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,64%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,72; 7,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,06; 5,98</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 15,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,59; 8,38</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,42; 15,7</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,8; 11,88</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 28,47</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,0; 14,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6904-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P6904-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7,6</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26,42</t>
+          <t>25,4</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,97%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>45,85%</t>
+          <t>44,01%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,52; 31,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 50,94</t>
+          <t>-7,77; 51,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,94; 67,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 129,89</t>
+          <t>-5,65; 132,12</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,24</t>
+          <t>-4,62</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-5,82%</t>
+          <t>-8,11%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,01; 17,57</t>
+          <t>-26,67; 16,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-36,31; 41,18</t>
+          <t>-37,75; 35,91</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>9,16%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,85; 21,38</t>
+          <t>-14,91; 21,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,54; 50,09</t>
+          <t>-24,39; 51,2</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,35</t>
+          <t>11,03</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>14,43%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 21,66</t>
+          <t>-21,81; 25,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 31,0</t>
+          <t>-5,62; 38,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,48; 45,88</t>
+          <t>-37,84; 62,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 54,5</t>
+          <t>-7,16; 74,48</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>-1,7</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-3,32%</t>
+          <t>-3,64%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-27,9; 26,37</t>
+          <t>-27,97; 25,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-47,56; 87,11</t>
+          <t>-47,83; 83,71</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-4,5</t>
+          <t>-4,52</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-7,29%</t>
+          <t>-7,31%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-25,82; 15,69</t>
+          <t>-25,93; 15,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,55; 31,19</t>
+          <t>-35,15; 31,31</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,53</t>
+          <t>9,41</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>16,73%</t>
+          <t>16,61%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 24,89</t>
+          <t>-7,47; 24,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 53,46</t>
+          <t>-10,82; 53,44</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-21,68</t>
+          <t>-22,24</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-28,71%</t>
+          <t>-29,37%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-38,62; -0,82</t>
+          <t>-39,22; -1,63</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-46,71; -0,75</t>
+          <t>-47,87; -2,55</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>6,17%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 8,38</t>
+          <t>-4,58; 14,54</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 14,55</t>
+          <t>-7,19; 24,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6904-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P6904-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-39,64; 11,29</t>
+          <t>-36,55; 12,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,52; 31,56</t>
+          <t>-17,92; 32,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,97; 47,63</t>
+          <t>9,53; 48,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 51,05</t>
+          <t>-3,67; 50,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-54,61; 20,65</t>
+          <t>-49,4; 21,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-26,94; 67,8</t>
+          <t>-26,07; 70,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,96; 163,19</t>
+          <t>19,55; 170,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 132,12</t>
+          <t>-4,43; 134,21</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 28,63</t>
+          <t>-11,2; 31,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-46,77; -4,24</t>
+          <t>-48,13; -2,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 20,04</t>
+          <t>-13,08; 19,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-26,67; 16,08</t>
+          <t>-29,13; 17,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,11; 66,78</t>
+          <t>-19,09; 74,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-66,72; -7,44</t>
+          <t>-66,66; -4,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,22; 28,93</t>
+          <t>-16,51; 28,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,75; 35,91</t>
+          <t>-41,89; 41,27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-39,22; 13,85</t>
+          <t>-40,0; 11,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-46,85; 15,48</t>
+          <t>-46,39; 14,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-48,93; 12,61</t>
+          <t>-50,07; 7,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,91; 21,62</t>
+          <t>-11,78; 23,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-61,08; 33,15</t>
+          <t>-65,02; 24,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-65,59; 32,31</t>
+          <t>-66,64; 29,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-57,84; 16,45</t>
+          <t>-56,77; 9,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,39; 51,2</t>
+          <t>-19,58; 62,65</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,58; 26,01</t>
+          <t>-23,74; 23,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,81; 25,96</t>
+          <t>-23,01; 25,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-29,98; 20,08</t>
+          <t>-28,05; 20,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 38,87</t>
+          <t>-7,1; 36,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,93; 84,96</t>
+          <t>-49,9; 71,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,84; 62,35</t>
+          <t>-39,02; 69,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-37,97; 36,45</t>
+          <t>-35,51; 39,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 74,48</t>
+          <t>-8,67; 64,79</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-51,88; 22,78</t>
+          <t>-50,09; 22,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-57,53; 12,41</t>
+          <t>-58,25; 10,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,51; 59,1</t>
+          <t>-24,08; 60,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-27,97; 25,87</t>
+          <t>-28,64; 25,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 127,76</t>
+          <t>-100,0; 126,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-62,51; 13,06</t>
+          <t>-64,41; 12,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-22,68; 194,47</t>
+          <t>-26,05; 185,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-47,83; 83,71</t>
+          <t>-48,83; 77,89</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-29,2; 34,43</t>
+          <t>-27,87; 30,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-55,15; -3,83</t>
+          <t>-53,73; -0,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,04; 78,12</t>
+          <t>10,32; 75,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-25,93; 15,71</t>
+          <t>-24,81; 17,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-60,44; 102,7</t>
+          <t>-62,26; 97,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-88,83; -4,14</t>
+          <t>-88,72; -0,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>34,82; 447,68</t>
+          <t>32,37; 414,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,15; 31,31</t>
+          <t>-34,29; 34,5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,54; 20,41</t>
+          <t>-15,6; 21,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 38,63</t>
+          <t>-3,97; 35,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-25,92; 9,9</t>
+          <t>-25,45; 10,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 24,69</t>
+          <t>-7,09; 25,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-28,51; 49,12</t>
+          <t>-29,29; 48,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 131,52</t>
+          <t>-8,36; 120,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-36,85; 16,45</t>
+          <t>-34,54; 18,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 53,44</t>
+          <t>-10,58; 54,23</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,75; 16,94</t>
+          <t>-17,02; 17,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 37,41</t>
+          <t>-9,12; 37,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 42,15</t>
+          <t>-10,68; 40,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-39,22; -1,63</t>
+          <t>-39,67; -2,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,46; 29,59</t>
+          <t>-24,82; 30,29</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,72; 118,28</t>
+          <t>-18,72; 123,9</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-21,27; 186,7</t>
+          <t>-24,31; 149,75</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-47,87; -2,55</t>
+          <t>-48,66; -3,31</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 7,71</t>
+          <t>-9,04; 7,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 5,98</t>
+          <t>-12,72; 5,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 15,55</t>
+          <t>-0,16; 16,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 14,54</t>
+          <t>-4,06; 15,77</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 15,7</t>
+          <t>-16,13; 15,39</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-20,8; 11,88</t>
+          <t>-22,0; 9,79</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 28,47</t>
+          <t>-0,31; 29,22</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 24,61</t>
+          <t>-6,5; 27,33</t>
         </is>
       </c>
     </row>
